--- a/clean datasets/mergedset2.xlsx
+++ b/clean datasets/mergedset2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLY\PycharmProjects\offensivedetection\clean datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D442476-59C6-4EE5-9081-1E3D5F528D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F9FD7-BA0F-4FC1-86DA-6E6A11D100A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{53A81D30-86EB-4AB7-8381-DE1252025AC6}"/>
+    <workbookView xWindow="13875" yWindow="990" windowWidth="16710" windowHeight="19845" xr2:uid="{53A81D30-86EB-4AB7-8381-DE1252025AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>ano bayan nakakadiri anong klaseng mukbang yan kumakain ng insekto</t>
   </si>
@@ -74,10 +74,13 @@
     <t>Action agad [NAME] Para sila lang makikinabang mga polpol</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>comments</t>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>OFFENSIVE (Y or N)</t>
+  </si>
+  <si>
+    <t>Panghalo kasi sa paham yan</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5E7382-A4EE-402B-97F0-DCF318DE56BA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +484,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,6 +559,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
